--- a/data/trans_dic/iP30KDA3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA3_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>86,31%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,21; 90,89</t>
+          <t>81,29; 94,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,65; 94,74</t>
+          <t>72,61; 90,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,75; 91,33</t>
+          <t>80,21; 91,57</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>86,4%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,4; 91,12</t>
+          <t>79,57; 90,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,79; 90,18</t>
+          <t>82,58; 91,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,88; 89,34</t>
+          <t>83,07; 89,53</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>87,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>86,12%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,6; 89,27</t>
+          <t>81,69; 90,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,4; 91,17</t>
+          <t>80,53; 89,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,67; 88,99</t>
+          <t>82,71; 88,76</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>82,14%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>80,72%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>80,74%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>81,39%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,05; 84,83</t>
+          <t>77,72; 87,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,39; 84,68</t>
+          <t>75,69; 85,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,47; 83,65</t>
+          <t>77,88; 84,56</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>84,24%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,26; 86,14</t>
+          <t>82,37; 87,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,8; 86,84</t>
+          <t>80,95; 86,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,17; 85,91</t>
+          <t>82,45; 86,17</t>
         </is>
       </c>
     </row>
